--- a/public/Excel_example/prof/foreign_prof_exchange.xlsx
+++ b/public/Excel_example/prof/foreign_prof_exchange.xlsx
@@ -54,7 +54,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>外籍學者身分（輸入數字）</t>
+    <t>外籍學者身分（教授、副教授、助理教授或博士後研究員）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -466,7 +466,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>

--- a/public/Excel_example/prof/foreign_prof_exchange.xlsx
+++ b/public/Excel_example/prof/foreign_prof_exchange.xlsx
@@ -17,68 +17,42 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>邀請單位（一級單位名稱）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邀請單位（二級單位名稱）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>外籍</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>學者</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>姓名</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>外籍學者身分（教授、副教授、助理教授或博士後研究員）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>國籍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>開始時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>結束時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外籍學者姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,24 +68,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
@@ -121,7 +77,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -148,17 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -463,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
@@ -479,31 +436,41 @@
     <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/Excel_example/prof/foreign_prof_exchange.xlsx
+++ b/public/Excel_example/prof/foreign_prof_exchange.xlsx
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/public/Excel_example/prof/foreign_prof_exchange.xlsx
+++ b/public/Excel_example/prof/foreign_prof_exchange.xlsx
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,13 +82,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,12 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -420,13 +412,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
@@ -436,7 +428,7 @@
     <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,16 +453,6 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
